--- a/Data/Archived_CEDS_Documentation.xlsx
+++ b/Data/Archived_CEDS_Documentation.xlsx
@@ -1,10 +1,16 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
-<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships">
-  <fileVersion appName="xl" lastEdited="5" lowestEdited="6" rupBuild="9303"/>
+<workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="10811"/>
   <workbookPr/>
+  <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
+    <mc:Choice Requires="x15">
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/denghanwen/Desktop/LDA/longitudinal-data-analysis/Data/"/>
+    </mc:Choice>
+  </mc:AlternateContent>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{05CCAC52-E712-D54A-A867-A3366CDE37AF}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="0" yWindow="0" windowWidth="24000" windowHeight="9735"/>
+    <workbookView xWindow="0" yWindow="760" windowWidth="34200" windowHeight="21380" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
@@ -603,7 +609,7 @@
 </file>
 
 <file path=xl/styles.xml><?xml version="1.0" encoding="utf-8"?>
-<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<styleSheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:x16r2="http://schemas.microsoft.com/office/spreadsheetml/2015/02/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" mc:Ignorable="x14ac x16r2 xr">
   <fonts count="3" x14ac:knownFonts="1">
     <font>
       <sz val="11"/>
@@ -629,12 +635,18 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="2">
+  <fills count="3">
     <fill>
       <patternFill patternType="none"/>
     </fill>
     <fill>
       <patternFill patternType="gray125"/>
+    </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor rgb="FFFFFF00"/>
+        <bgColor indexed="64"/>
+      </patternFill>
     </fill>
   </fills>
   <borders count="1">
@@ -649,14 +661,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="5">
+  <cellXfs count="6">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyAlignment="1">
       <alignment vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="1" fillId="0" borderId="0" xfId="0" applyFont="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
-    <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="2" borderId="0" xfId="0" applyFill="1"/>
+    <xf numFmtId="0" fontId="2" fillId="2" borderId="0" xfId="0" applyFont="1" applyFill="1"/>
   </cellXfs>
   <cellStyles count="1">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -929,26 +942,26 @@
   <a:extraClrSchemeLst/>
   <a:extLst>
     <a:ext uri="{05A4C25C-085E-4340-85A3-A5531E510DB2}">
-      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" xmlns="" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
+      <thm15:themeFamily xmlns:thm15="http://schemas.microsoft.com/office/thememl/2012/main" name="Office Theme" id="{62F939B6-93AF-4DB8-9C6B-D6C7DFDC589F}" vid="{4A3C46E8-61CC-4603-A589-7422A47A8E4A}"/>
     </a:ext>
   </a:extLst>
 </a:theme>
 </file>
 
 <file path=xl/worksheets/sheet1.xml><?xml version="1.0" encoding="utf-8"?>
-<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{00000000-0001-0000-0000-000000000000}">
   <dimension ref="A1:B110"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A68" workbookViewId="0">
-      <selection activeCell="A109" sqref="A109"/>
+    <sheetView tabSelected="1" zoomScale="144" zoomScaleNormal="130" workbookViewId="0">
+      <selection activeCell="A53" sqref="A53:XFD53"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr baseColWidth="10" defaultColWidth="8.83203125" defaultRowHeight="15" x14ac:dyDescent="0.2"/>
   <cols>
-    <col min="1" max="1" width="76.7109375" bestFit="1" customWidth="1"/>
+    <col min="1" max="1" width="76.6640625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="1" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A1" s="2" t="s">
         <v>36</v>
       </c>
@@ -956,7 +969,7 @@
         <v>0</v>
       </c>
     </row>
-    <row r="2" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="2" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A2" t="s">
         <v>1</v>
       </c>
@@ -964,7 +977,7 @@
         <v>145</v>
       </c>
     </row>
-    <row r="3" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="3" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A3" t="s">
         <v>2</v>
       </c>
@@ -972,7 +985,7 @@
         <v>138</v>
       </c>
     </row>
-    <row r="4" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="4" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A4" t="s">
         <v>3</v>
       </c>
@@ -980,7 +993,7 @@
         <v>4</v>
       </c>
     </row>
-    <row r="5" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="5" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A5" t="s">
         <v>5</v>
       </c>
@@ -988,7 +1001,7 @@
         <v>6</v>
       </c>
     </row>
-    <row r="6" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="6" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A6" t="s">
         <v>27</v>
       </c>
@@ -996,7 +1009,7 @@
         <v>28</v>
       </c>
     </row>
-    <row r="7" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="7" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A7" t="s">
         <v>29</v>
       </c>
@@ -1004,7 +1017,7 @@
         <v>30</v>
       </c>
     </row>
-    <row r="8" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="8" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A8" t="s">
         <v>7</v>
       </c>
@@ -1012,7 +1025,7 @@
         <v>31</v>
       </c>
     </row>
-    <row r="9" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="9" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A9" t="s">
         <v>8</v>
       </c>
@@ -1020,7 +1033,7 @@
         <v>9</v>
       </c>
     </row>
-    <row r="10" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="10" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A10" t="s">
         <v>10</v>
       </c>
@@ -1028,15 +1041,15 @@
         <v>59</v>
       </c>
     </row>
-    <row r="11" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A11" t="s">
+    <row r="11" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A11" s="4" t="s">
         <v>11</v>
       </c>
-      <c r="B11" t="s">
+      <c r="B11" s="4" t="s">
         <v>58</v>
       </c>
     </row>
-    <row r="12" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="12" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A12" t="s">
         <v>12</v>
       </c>
@@ -1044,7 +1057,7 @@
         <v>32</v>
       </c>
     </row>
-    <row r="13" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="13" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A13" t="s">
         <v>13</v>
       </c>
@@ -1052,7 +1065,7 @@
         <v>137</v>
       </c>
     </row>
-    <row r="14" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="14" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A14" t="s">
         <v>14</v>
       </c>
@@ -1060,7 +1073,7 @@
         <v>50</v>
       </c>
     </row>
-    <row r="15" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="15" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A15" t="s">
         <v>15</v>
       </c>
@@ -1068,7 +1081,7 @@
         <v>52</v>
       </c>
     </row>
-    <row r="16" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="16" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A16" t="s">
         <v>16</v>
       </c>
@@ -1076,7 +1089,7 @@
         <v>51</v>
       </c>
     </row>
-    <row r="17" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="17" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A17" t="s">
         <v>17</v>
       </c>
@@ -1084,7 +1097,7 @@
         <v>54</v>
       </c>
     </row>
-    <row r="18" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="18" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A18" t="s">
         <v>18</v>
       </c>
@@ -1092,7 +1105,7 @@
         <v>53</v>
       </c>
     </row>
-    <row r="19" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="19" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A19" t="s">
         <v>19</v>
       </c>
@@ -1100,7 +1113,7 @@
         <v>55</v>
       </c>
     </row>
-    <row r="20" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="20" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A20" t="s">
         <v>20</v>
       </c>
@@ -1108,7 +1121,7 @@
         <v>48</v>
       </c>
     </row>
-    <row r="21" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="21" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A21" t="s">
         <v>21</v>
       </c>
@@ -1116,7 +1129,7 @@
         <v>49</v>
       </c>
     </row>
-    <row r="22" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="22" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A22" t="s">
         <v>22</v>
       </c>
@@ -1124,15 +1137,15 @@
         <v>111</v>
       </c>
     </row>
-    <row r="23" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A23" t="s">
+    <row r="23" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A23" s="4" t="s">
         <v>23</v>
       </c>
-      <c r="B23" t="s">
+      <c r="B23" s="4" t="s">
         <v>139</v>
       </c>
     </row>
-    <row r="24" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="24" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A24" t="s">
         <v>24</v>
       </c>
@@ -1140,7 +1153,7 @@
         <v>140</v>
       </c>
     </row>
-    <row r="25" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="25" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A25" t="s">
         <v>25</v>
       </c>
@@ -1148,7 +1161,7 @@
         <v>56</v>
       </c>
     </row>
-    <row r="26" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="26" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A26" t="s">
         <v>26</v>
       </c>
@@ -1156,12 +1169,12 @@
         <v>112</v>
       </c>
     </row>
-    <row r="28" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="28" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A28" s="2" t="s">
         <v>37</v>
       </c>
     </row>
-    <row r="29" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="29" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A29" s="3" t="s">
         <v>34</v>
       </c>
@@ -1169,7 +1182,7 @@
         <v>35</v>
       </c>
     </row>
-    <row r="30" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="30" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A30" t="s">
         <v>148</v>
       </c>
@@ -1177,7 +1190,7 @@
         <v>33</v>
       </c>
     </row>
-    <row r="31" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="31" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A31" t="s">
         <v>149</v>
       </c>
@@ -1185,7 +1198,7 @@
         <v>38</v>
       </c>
     </row>
-    <row r="32" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="32" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A32" t="s">
         <v>150</v>
       </c>
@@ -1193,7 +1206,7 @@
         <v>39</v>
       </c>
     </row>
-    <row r="33" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="33" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A33" t="s">
         <v>151</v>
       </c>
@@ -1201,7 +1214,7 @@
         <v>40</v>
       </c>
     </row>
-    <row r="34" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="34" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A34" s="3" t="s">
         <v>41</v>
       </c>
@@ -1209,7 +1222,7 @@
         <v>47</v>
       </c>
     </row>
-    <row r="35" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="35" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A35" t="s">
         <v>152</v>
       </c>
@@ -1217,7 +1230,7 @@
         <v>42</v>
       </c>
     </row>
-    <row r="36" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="36" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A36" t="s">
         <v>45</v>
       </c>
@@ -1225,7 +1238,7 @@
         <v>43</v>
       </c>
     </row>
-    <row r="37" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="37" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A37" t="s">
         <v>46</v>
       </c>
@@ -1233,12 +1246,12 @@
         <v>44</v>
       </c>
     </row>
-    <row r="39" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A39" s="3" t="s">
+    <row r="39" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A39" s="5" t="s">
         <v>57</v>
       </c>
     </row>
-    <row r="40" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="40" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A40" t="s">
         <v>153</v>
       </c>
@@ -1246,7 +1259,7 @@
         <v>64</v>
       </c>
     </row>
-    <row r="41" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="41" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A41" t="s">
         <v>154</v>
       </c>
@@ -1254,7 +1267,7 @@
         <v>63</v>
       </c>
     </row>
-    <row r="42" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="42" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A42" t="s">
         <v>155</v>
       </c>
@@ -1262,12 +1275,12 @@
         <v>65</v>
       </c>
     </row>
-    <row r="44" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="44" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A44" s="3" t="s">
         <v>60</v>
       </c>
     </row>
-    <row r="45" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="45" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A45" t="s">
         <v>156</v>
       </c>
@@ -1275,7 +1288,7 @@
         <v>66</v>
       </c>
     </row>
-    <row r="46" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="46" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A46" t="s">
         <v>157</v>
       </c>
@@ -1283,7 +1296,7 @@
         <v>67</v>
       </c>
     </row>
-    <row r="48" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="48" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A48" s="3" t="s">
         <v>61</v>
       </c>
@@ -1291,63 +1304,63 @@
         <v>62</v>
       </c>
     </row>
-    <row r="49" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A49" t="s">
+    <row r="49" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A49" s="4" t="s">
         <v>68</v>
       </c>
-      <c r="B49" t="s">
+      <c r="B49" s="4" t="s">
         <v>84</v>
       </c>
     </row>
-    <row r="50" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A50" t="s">
+    <row r="50" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A50" s="4" t="s">
         <v>69</v>
       </c>
-      <c r="B50" t="s">
+      <c r="B50" s="4" t="s">
         <v>85</v>
       </c>
     </row>
-    <row r="51" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A51" t="s">
+    <row r="51" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A51" s="4" t="s">
         <v>70</v>
       </c>
-      <c r="B51" t="s">
+      <c r="B51" s="4" t="s">
         <v>86</v>
       </c>
     </row>
-    <row r="52" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A52" t="s">
+    <row r="52" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A52" s="4" t="s">
         <v>71</v>
       </c>
-      <c r="B52" t="s">
+      <c r="B52" s="4" t="s">
         <v>88</v>
       </c>
     </row>
-    <row r="53" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A53" t="s">
+    <row r="53" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A53" s="4" t="s">
         <v>72</v>
       </c>
-      <c r="B53" t="s">
+      <c r="B53" s="4" t="s">
         <v>87</v>
       </c>
     </row>
-    <row r="54" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A54" t="s">
+    <row r="54" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A54" s="4" t="s">
         <v>73</v>
       </c>
-      <c r="B54" t="s">
+      <c r="B54" s="4" t="s">
         <v>83</v>
       </c>
     </row>
-    <row r="55" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A55" t="s">
+    <row r="55" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A55" s="4" t="s">
         <v>74</v>
       </c>
-      <c r="B55" t="s">
+      <c r="B55" s="4" t="s">
         <v>82</v>
       </c>
     </row>
-    <row r="56" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="56" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A56" t="s">
         <v>75</v>
       </c>
@@ -1355,7 +1368,7 @@
         <v>89</v>
       </c>
     </row>
-    <row r="57" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="57" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A57" t="s">
         <v>76</v>
       </c>
@@ -1363,7 +1376,7 @@
         <v>90</v>
       </c>
     </row>
-    <row r="58" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="58" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A58" t="s">
         <v>77</v>
       </c>
@@ -1371,7 +1384,7 @@
         <v>91</v>
       </c>
     </row>
-    <row r="59" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="59" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A59" t="s">
         <v>93</v>
       </c>
@@ -1379,7 +1392,7 @@
         <v>92</v>
       </c>
     </row>
-    <row r="60" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="60" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A60" t="s">
         <v>79</v>
       </c>
@@ -1387,7 +1400,7 @@
         <v>78</v>
       </c>
     </row>
-    <row r="61" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="61" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A61" t="s">
         <v>80</v>
       </c>
@@ -1395,31 +1408,31 @@
         <v>81</v>
       </c>
     </row>
-    <row r="62" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A62" t="s">
+    <row r="62" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A62" s="4" t="s">
         <v>94</v>
       </c>
-      <c r="B62" t="s">
+      <c r="B62" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="63" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A63" t="s">
+    <row r="63" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A63" s="4" t="s">
         <v>95</v>
       </c>
-      <c r="B63" t="s">
+      <c r="B63" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="64" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A64" t="s">
+    <row r="64" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A64" s="4" t="s">
         <v>97</v>
       </c>
-      <c r="B64" t="s">
+      <c r="B64" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="65" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="65" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A65" t="s">
         <v>98</v>
       </c>
@@ -1427,7 +1440,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="66" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="66" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A66" t="s">
         <v>99</v>
       </c>
@@ -1435,7 +1448,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="67" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="67" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A67" t="s">
         <v>100</v>
       </c>
@@ -1443,7 +1456,7 @@
         <v>96</v>
       </c>
     </row>
-    <row r="68" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="68" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A68" t="s">
         <v>101</v>
       </c>
@@ -1451,23 +1464,23 @@
         <v>96</v>
       </c>
     </row>
-    <row r="69" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A69" t="s">
+    <row r="69" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A69" s="4" t="s">
         <v>104</v>
       </c>
-      <c r="B69" t="s">
+      <c r="B69" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="70" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A70" t="s">
+    <row r="70" spans="1:2" s="4" customFormat="1" x14ac:dyDescent="0.2">
+      <c r="A70" s="4" t="s">
         <v>103</v>
       </c>
-      <c r="B70" t="s">
+      <c r="B70" s="4" t="s">
         <v>96</v>
       </c>
     </row>
-    <row r="71" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="71" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A71" t="s">
         <v>102</v>
       </c>
@@ -1475,12 +1488,12 @@
         <v>96</v>
       </c>
     </row>
-    <row r="73" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="73" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A73" s="3" t="s">
         <v>105</v>
       </c>
     </row>
-    <row r="74" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="74" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A74" t="s">
         <v>158</v>
       </c>
@@ -1488,7 +1501,7 @@
         <v>106</v>
       </c>
     </row>
-    <row r="75" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="75" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A75" t="s">
         <v>159</v>
       </c>
@@ -1496,12 +1509,12 @@
         <v>107</v>
       </c>
     </row>
-    <row r="77" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="77" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A77" s="3" t="s">
         <v>160</v>
       </c>
     </row>
-    <row r="78" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="78" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A78" t="s">
         <v>108</v>
       </c>
@@ -1509,7 +1522,7 @@
         <v>109</v>
       </c>
     </row>
-    <row r="79" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="79" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A79" t="s">
         <v>117</v>
       </c>
@@ -1517,7 +1530,7 @@
         <v>118</v>
       </c>
     </row>
-    <row r="81" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="81" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A81" s="3" t="s">
         <v>110</v>
       </c>
@@ -1525,50 +1538,50 @@
         <v>113</v>
       </c>
     </row>
-    <row r="82" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A82" s="4" t="s">
+    <row r="82" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A82" t="s">
         <v>161</v>
       </c>
       <c r="B82" t="s">
         <v>114</v>
       </c>
     </row>
-    <row r="83" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A83" s="4" t="s">
+    <row r="83" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A83" t="s">
         <v>115</v>
       </c>
     </row>
-    <row r="84" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A84" s="4" t="s">
+    <row r="84" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A84" t="s">
         <v>162</v>
       </c>
     </row>
-    <row r="85" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A85" s="4" t="s">
+    <row r="85" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A85" t="s">
         <v>163</v>
       </c>
     </row>
-    <row r="86" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A86" s="4" t="s">
+    <row r="86" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A86" t="s">
         <v>164</v>
       </c>
     </row>
-    <row r="87" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A87" s="4" t="s">
+    <row r="87" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A87" t="s">
         <v>116</v>
       </c>
     </row>
-    <row r="88" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A88" s="4" t="s">
+    <row r="88" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A88" t="s">
         <v>165</v>
       </c>
     </row>
-    <row r="89" spans="1:2" x14ac:dyDescent="0.25">
-      <c r="A89" s="4" t="s">
+    <row r="89" spans="1:2" x14ac:dyDescent="0.2">
+      <c r="A89" t="s">
         <v>166</v>
       </c>
     </row>
-    <row r="91" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="91" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A91" t="s">
         <v>119</v>
       </c>
@@ -1576,22 +1589,22 @@
         <v>120</v>
       </c>
     </row>
-    <row r="92" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="92" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A92" t="s">
         <v>121</v>
       </c>
     </row>
-    <row r="93" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="93" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A93" t="s">
         <v>122</v>
       </c>
     </row>
-    <row r="95" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="95" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A95" s="3" t="s">
         <v>123</v>
       </c>
     </row>
-    <row r="96" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="96" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A96" t="s">
         <v>124</v>
       </c>
@@ -1599,7 +1612,7 @@
         <v>126</v>
       </c>
     </row>
-    <row r="97" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="97" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A97" t="s">
         <v>125</v>
       </c>
@@ -1607,12 +1620,12 @@
         <v>127</v>
       </c>
     </row>
-    <row r="98" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="98" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A98" t="s">
         <v>128</v>
       </c>
     </row>
-    <row r="100" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="100" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A100" t="s">
         <v>129</v>
       </c>
@@ -1620,7 +1633,7 @@
         <v>130</v>
       </c>
     </row>
-    <row r="101" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="101" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A101" t="s">
         <v>132</v>
       </c>
@@ -1628,7 +1641,7 @@
         <v>131</v>
       </c>
     </row>
-    <row r="102" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="102" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A102" t="s">
         <v>133</v>
       </c>
@@ -1636,7 +1649,7 @@
         <v>134</v>
       </c>
     </row>
-    <row r="103" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="103" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A103" t="s">
         <v>136</v>
       </c>
@@ -1644,12 +1657,12 @@
         <v>135</v>
       </c>
     </row>
-    <row r="105" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="105" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A105" s="3" t="s">
         <v>141</v>
       </c>
     </row>
-    <row r="106" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="106" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A106" t="s">
         <v>167</v>
       </c>
@@ -1657,7 +1670,7 @@
         <v>142</v>
       </c>
     </row>
-    <row r="107" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="107" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A107" t="s">
         <v>168</v>
       </c>
@@ -1665,7 +1678,7 @@
         <v>143</v>
       </c>
     </row>
-    <row r="108" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="108" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A108" t="s">
         <v>169</v>
       </c>
@@ -1673,7 +1686,7 @@
         <v>144</v>
       </c>
     </row>
-    <row r="110" spans="1:2" x14ac:dyDescent="0.25">
+    <row r="110" spans="1:2" x14ac:dyDescent="0.2">
       <c r="A110" s="3" t="s">
         <v>146</v>
       </c>
